--- a/qa-test-mfl/src/test/java/org/naic/mfl/se/challenge/Data/UserInfo.xlsx
+++ b/qa-test-mfl/src/test/java/org/naic/mfl/se/challenge/Data/UserInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marhabaeli/Downloads/qa-test-mfl/src/test/java/org/naic/mfl/se/challenge/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A08B18-D65E-8C45-B66C-DB693E6AD142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE5DEC3-D232-4B4A-BDA8-61F5C70E61E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="7820" windowWidth="28040" windowHeight="17040" xr2:uid="{61A0C098-135D-E346-8DD5-5486B1509B5B}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="28040" windowHeight="17040" xr2:uid="{61A0C098-135D-E346-8DD5-5486B1509B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id_gender</t>
   </si>
@@ -68,42 +68,15 @@
     <t>state</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Qwert, 123</t>
-  </si>
-  <si>
-    <t>axsf</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>postcode</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>dfnfd</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -113,27 +86,71 @@
     <t>alias</t>
   </si>
   <si>
-    <t>hf</t>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>and Sons</t>
+  </si>
+  <si>
+    <t>[Ljava.lang.String;@2bffa76d</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Paucek</t>
+  </si>
+  <si>
+    <t>hf_challenge_1548044845621@hf845621.com</t>
+  </si>
+  <si>
+    <t>Ybe###</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>Light 0723, Suite 447</t>
+  </si>
+  <si>
+    <t>Eastberg</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>89164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">affiliated vigorously waiting X-ray clerk. </t>
+  </si>
+  <si>
+    <t>1588333088</t>
+  </si>
+  <si>
+    <t>5838282298</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +173,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,7 +492,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +508,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -522,72 +538,75 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>12345</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>2001</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>12345</v>
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1">
-        <v>12345123123</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>12345123123</v>
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
